--- a/excel/info.xlsx
+++ b/excel/info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AZ\POM_project\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E5C73C2-0459-4751-80FF-EE1E214F0469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EC8C95-A3F1-4E6C-81DA-A2B1BA695B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4290" yWindow="2850" windowWidth="21600" windowHeight="11385" xr2:uid="{8422D3EA-837C-4375-969C-EC45862A1B58}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>password</t>
   </si>
@@ -41,20 +41,38 @@
     <t>mail</t>
   </si>
   <si>
-    <t>ada@dfgdf.com</t>
-  </si>
-  <si>
-    <t>phone no</t>
-  </si>
-  <si>
     <t>Testtest2</t>
+  </si>
+  <si>
+    <t>43543537645</t>
+  </si>
+  <si>
+    <t>4354635345</t>
+  </si>
+  <si>
+    <t>Testtest3</t>
+  </si>
+  <si>
+    <t>Testtest4</t>
+  </si>
+  <si>
+    <t>phone_no</t>
+  </si>
+  <si>
+    <t>dbqkfdmqhsa@dfgldf.com</t>
+  </si>
+  <si>
+    <t>jjkqmdiql@dfgidf.com</t>
+  </si>
+  <si>
+    <t>iqiomhgbha@idfgdf.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +91,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -100,12 +125,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,45 +449,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D630E8A0-888C-42DF-9F2B-2163BD59DC78}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
+        <v>435435345</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>435435345</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{88C24BCA-E92C-47F2-ABCE-815458BD2EF3}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{60B34F53-5132-42BE-841D-85EBB521573B}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{5C747E95-58CD-4FEF-8573-7631AFCF4B82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>